--- a/output/VERDE_22187946000141.xlsx
+++ b/output/VERDE_22187946000141.xlsx
@@ -1131,10 +1131,10 @@
         <v>44165</v>
       </c>
       <c r="B68">
-        <v>0.7122647132682669</v>
+        <v>0.7126519615235569</v>
       </c>
       <c r="C68">
-        <v>0.03668108077323806</v>
+        <v>0.03691553806054348</v>
       </c>
     </row>
   </sheetData>

--- a/output/VERDE_22187946000141.xlsx
+++ b/output/VERDE_22187946000141.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>VERDE FUNDO DE INVESTIMENTO EM COTAS DE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,755 +383,554 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42155</v>
       </c>
       <c r="B2">
-        <v>0.01615238780112338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42185</v>
       </c>
       <c r="B3">
-        <v>0.01459381453042319</v>
-      </c>
-      <c r="C3">
         <v>-0.001533798758346472</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42216</v>
       </c>
       <c r="B4">
-        <v>0.06945647584350434</v>
-      </c>
-      <c r="C4">
         <v>0.05407352235679941</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42247</v>
       </c>
       <c r="B5">
-        <v>0.06617641824478193</v>
-      </c>
-      <c r="C5">
         <v>-0.00306703234101724</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42277</v>
       </c>
       <c r="B6">
-        <v>0.08086788165959313</v>
-      </c>
-      <c r="C6">
         <v>0.01377958015522185</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42308</v>
       </c>
       <c r="B7">
-        <v>0.09795004522506057</v>
-      </c>
-      <c r="C7">
         <v>0.01580411801971482</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42338</v>
       </c>
       <c r="B8">
-        <v>0.1251762043323785</v>
-      </c>
-      <c r="C8">
         <v>0.0247972658006832</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42369</v>
       </c>
       <c r="B9">
-        <v>0.1368341302307308</v>
-      </c>
-      <c r="C9">
         <v>0.01036097799923663</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42400</v>
       </c>
       <c r="B10">
-        <v>0.1492181579604221</v>
-      </c>
-      <c r="C10">
         <v>0.01089343414344701</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42429</v>
       </c>
       <c r="B11">
-        <v>0.1578713348423757</v>
-      </c>
-      <c r="C11">
         <v>0.007529620744342269</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42460</v>
       </c>
       <c r="B12">
-        <v>0.1292229412501824</v>
-      </c>
-      <c r="C12">
         <v>-0.02474229452799548</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42490</v>
       </c>
       <c r="B13">
-        <v>0.1490946540124292</v>
-      </c>
-      <c r="C13">
         <v>0.0175976877871844</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42521</v>
       </c>
       <c r="B14">
-        <v>0.1665780055082409</v>
-      </c>
-      <c r="C14">
         <v>0.015214892380504</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42551</v>
       </c>
       <c r="B15">
-        <v>0.1871518329621698</v>
-      </c>
-      <c r="C15">
         <v>0.01763604950272102</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42582</v>
       </c>
       <c r="B16">
-        <v>0.2088006763963284</v>
-      </c>
-      <c r="C16">
         <v>0.01823595165594005</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42613</v>
       </c>
       <c r="B17">
-        <v>0.2285860957537049</v>
-      </c>
-      <c r="C17">
         <v>0.0163678096345552</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42643</v>
       </c>
       <c r="B18">
-        <v>0.2433447416983503</v>
-      </c>
-      <c r="C18">
         <v>0.01201270793773013</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42674</v>
       </c>
       <c r="B19">
-        <v>0.256886797072071</v>
-      </c>
-      <c r="C19">
         <v>0.01089163360696155</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42704</v>
       </c>
       <c r="B20">
-        <v>0.2698417878247472</v>
-      </c>
-      <c r="C20">
         <v>0.01030720569494004</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42735</v>
       </c>
       <c r="B21">
-        <v>0.3088776896366836</v>
-      </c>
-      <c r="C21">
         <v>0.03074076013737526</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42766</v>
       </c>
       <c r="B22">
-        <v>0.3103072506904263</v>
-      </c>
-      <c r="C22">
         <v>0.001092203698681349</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42794</v>
       </c>
       <c r="B23">
-        <v>0.3280501396853659</v>
-      </c>
-      <c r="C23">
         <v>0.0135410141290071</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42825</v>
       </c>
       <c r="B24">
-        <v>0.3428244771274751</v>
-      </c>
-      <c r="C24">
         <v>0.01112483407110632</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42855</v>
       </c>
       <c r="B25">
-        <v>0.3486615812288945</v>
-      </c>
-      <c r="C25">
         <v>0.004346885390342115</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42886</v>
       </c>
       <c r="B26">
-        <v>0.3367274160633043</v>
-      </c>
-      <c r="C26">
         <v>-0.008848895328297135</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42916</v>
       </c>
       <c r="B27">
-        <v>0.3427339984493987</v>
-      </c>
-      <c r="C27">
         <v>0.004493498310810473</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42947</v>
       </c>
       <c r="B28">
-        <v>0.3681592466680508</v>
-      </c>
-      <c r="C28">
         <v>0.01893543192323532</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42978</v>
       </c>
       <c r="B29">
-        <v>0.3732045963269586</v>
-      </c>
-      <c r="C29">
         <v>0.0036876918174511</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43008</v>
       </c>
       <c r="B30">
-        <v>0.3802707138639334</v>
-      </c>
-      <c r="C30">
         <v>0.005145713578206257</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43039</v>
       </c>
       <c r="B31">
-        <v>0.3749976226103291</v>
-      </c>
-      <c r="C31">
         <v>-0.003820331186222714</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43069</v>
       </c>
       <c r="B32">
-        <v>0.3690487586060676</v>
-      </c>
-      <c r="C32">
         <v>-0.004326454029038973</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43100</v>
       </c>
       <c r="B33">
-        <v>0.3775440186694645</v>
-      </c>
-      <c r="C33">
         <v>0.006205228272546437</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43131</v>
       </c>
       <c r="B34">
-        <v>0.419574582708482</v>
-      </c>
-      <c r="C34">
         <v>0.03051123119797916</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43159</v>
       </c>
       <c r="B35">
-        <v>0.4212759927059582</v>
-      </c>
-      <c r="C35">
         <v>0.001198535123269062</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43190</v>
       </c>
       <c r="B36">
-        <v>0.4295185259362901</v>
-      </c>
-      <c r="C36">
         <v>0.005799389613722505</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43220</v>
       </c>
       <c r="B37">
-        <v>0.4269855602035237</v>
-      </c>
-      <c r="C37">
         <v>-0.001771901298800893</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43251</v>
       </c>
       <c r="B38">
-        <v>0.4012692444912875</v>
-      </c>
-      <c r="C38">
         <v>-0.01802142672597784</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43281</v>
       </c>
       <c r="B39">
-        <v>0.4053273134810407</v>
-      </c>
-      <c r="C39">
         <v>0.002895995188438194</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43312</v>
       </c>
       <c r="B40">
-        <v>0.420819041393883</v>
-      </c>
-      <c r="C40">
         <v>0.01102357277499211</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43343</v>
       </c>
       <c r="B41">
-        <v>0.4306966522547362</v>
-      </c>
-      <c r="C41">
         <v>0.006952054113212647</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43373</v>
       </c>
       <c r="B42">
-        <v>0.4263890941667605</v>
-      </c>
-      <c r="C42">
         <v>-0.003010811607888408</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43404</v>
       </c>
       <c r="B43">
-        <v>0.4801932764784413</v>
-      </c>
-      <c r="C43">
         <v>0.03772055081724468</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43434</v>
       </c>
       <c r="B44">
-        <v>0.4884027844388565</v>
-      </c>
-      <c r="C44">
         <v>0.005546240542280145</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43465</v>
       </c>
       <c r="B45">
-        <v>0.4865172299107321</v>
-      </c>
-      <c r="C45">
         <v>-0.001266830825525034</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43496</v>
       </c>
       <c r="B46">
-        <v>0.5425261757589941</v>
-      </c>
-      <c r="C46">
         <v>0.03767796613539787</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43524</v>
       </c>
       <c r="B47">
-        <v>0.543951473826404</v>
-      </c>
-      <c r="C47">
         <v>0.0009240025160082155</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43555</v>
       </c>
       <c r="B48">
-        <v>0.550396114808074</v>
-      </c>
-      <c r="C48">
         <v>0.004174121461018698</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43585</v>
       </c>
       <c r="B49">
-        <v>0.5637187672992172</v>
-      </c>
-      <c r="C49">
         <v>0.00859306364605561</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43616</v>
       </c>
       <c r="B50">
-        <v>0.5837919152946396</v>
-      </c>
-      <c r="C50">
         <v>0.01283680186948954</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43646</v>
       </c>
       <c r="B51">
-        <v>0.6073353261070085</v>
-      </c>
-      <c r="C51">
         <v>0.01486521719489198</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43677</v>
       </c>
       <c r="B52">
-        <v>0.6143559337134559</v>
-      </c>
-      <c r="C52">
         <v>0.004367854978619468</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43708</v>
       </c>
       <c r="B53">
-        <v>0.6171977950801011</v>
-      </c>
-      <c r="C53">
         <v>0.001760368520533184</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43738</v>
       </c>
       <c r="B54">
-        <v>0.6381898596007969</v>
-      </c>
-      <c r="C54">
         <v>0.01298051764883601</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43769</v>
       </c>
       <c r="B55">
-        <v>0.6528447894193599</v>
-      </c>
-      <c r="C55">
         <v>0.008945806697969738</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43799</v>
       </c>
       <c r="B56">
-        <v>0.6528983712157284</v>
-      </c>
-      <c r="C56">
         <v>3.241792375874297e-05</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43830</v>
       </c>
       <c r="B57">
-        <v>0.6846899883166742</v>
-      </c>
-      <c r="C57">
         <v>0.01923386074702371</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43861</v>
       </c>
       <c r="B58">
-        <v>0.6815268271775745</v>
-      </c>
-      <c r="C58">
         <v>-0.001877592412275364</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43890</v>
       </c>
       <c r="B59">
-        <v>0.6334593539070159</v>
-      </c>
-      <c r="C59">
         <v>-0.02858561189370934</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43921</v>
       </c>
       <c r="B60">
-        <v>0.4463199831341917</v>
-      </c>
-      <c r="C60">
         <v>-0.114566285549262</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43951</v>
       </c>
       <c r="B61">
-        <v>0.5707933003251353</v>
-      </c>
-      <c r="C61">
         <v>0.08606208767247248</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43982</v>
       </c>
       <c r="B62">
-        <v>0.610386587834159</v>
-      </c>
-      <c r="C62">
         <v>0.025205918245786</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>44012</v>
       </c>
       <c r="B63">
-        <v>0.6250510370425846</v>
-      </c>
-      <c r="C63">
         <v>0.009106167003134269</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>44043</v>
       </c>
       <c r="B64">
-        <v>0.6583601724120958</v>
-      </c>
-      <c r="C64">
         <v>0.02049728569148823</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>44074</v>
       </c>
       <c r="B65">
-        <v>0.68042431385875</v>
-      </c>
-      <c r="C65">
         <v>0.01330479458787392</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>44104</v>
       </c>
       <c r="B66">
-        <v>0.6598907436770296</v>
-      </c>
-      <c r="C66">
         <v>-0.01221927700782266</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>44135</v>
       </c>
       <c r="B67">
-        <v>0.6516793303405573</v>
-      </c>
-      <c r="C67">
         <v>-0.004946960134425638</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>44165</v>
       </c>
       <c r="B68">
-        <v>0.7126519615235569</v>
-      </c>
-      <c r="C68">
-        <v>0.03691553806054348</v>
+        <v>0.03012016552030428</v>
       </c>
     </row>
   </sheetData>
